--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29203"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="189" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB33F589-CF6A-4857-89FC-86791591617F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A380642-01CE-48E2-BC1B-8616C1F1B754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
   <si>
     <t>No</t>
   </si>
@@ -45,6 +45,12 @@
     <t>期待する動作</t>
   </si>
   <si>
+    <t>実行結果</t>
+  </si>
+  <si>
+    <t>判定</t>
+  </si>
+  <si>
     <t>確認者</t>
   </si>
   <si>
@@ -57,213 +63,343 @@
     <t>環境</t>
   </si>
   <si>
-    <t>アカウント登録
-画面表示</t>
-  </si>
-  <si>
-    <t>TOPページのナビバーから
-「アカウント登録」
-をクリック</t>
-  </si>
-  <si>
-    <t>regist.phpに遷移し
-登録フォームが
-表示</t>
-  </si>
-  <si>
-    <t>必須項目未入力</t>
-  </si>
-  <si>
-    <t>全項目を
-空欄のまま
-「確認する」
-ボタンを押す</t>
-  </si>
-  <si>
-    <t>各項目の下に赤字で
-「○○が未入力です」
-と表示</t>
-  </si>
-  <si>
-    <t>名前(姓)に
-英字入力</t>
-  </si>
-  <si>
-    <t>「Tanaka」と入力して
+    <t>登録画面表示</t>
+  </si>
+  <si>
+    <t>TOPページのナビバーから「アカウント登録」をクリック</t>
+  </si>
+  <si>
+    <t>Windows 11／
+Chrome</t>
+  </si>
+  <si>
+    <t>名前（姓）の
+表示確認</t>
+  </si>
+  <si>
+    <t>1.登録画面で全項目を正しく
+入力
+2.「名前（姓）」に漢字またはひらがな（10文字以内）を入力
+3.「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>名前（名）の
+表示確認</t>
+  </si>
+  <si>
+    <t>1. 同上
+2. 「名前（名）」に漢字
+またはひらがな（10文字以内）を入力 
+3. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>カナ（姓）の
+表示確認</t>
+  </si>
+  <si>
+    <t>1. 同上 
+2. 「カナ（姓）」にカタカナ
+（10文字以内）を入力 
+3. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>カナ（名）の表示確認</t>
+  </si>
+  <si>
+    <t>1. 同上
+2. 「カナ（名）」にカタカナ
+（10文字以内）を入力 
+3. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>メールアドレスの
+表示確認</t>
+  </si>
+  <si>
+    <t>1. 同上 
+2. 「メールアドレス」に
+半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）（100文字以内）を入力 
+3. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>パスワードの表示
 確認</t>
   </si>
   <si>
-    <t>「名前(姓)はひらがなまたは漢字のみ入力してください」と表示</t>
-  </si>
-  <si>
-    <t>名前(名)に
-英字入力</t>
-  </si>
-  <si>
-    <t>「taro」と入力して
-確認</t>
-  </si>
-  <si>
-    <t>「名前(名)はひらがなまたは漢字のみ入力してください」と表示</t>
-  </si>
-  <si>
-    <t>カナ(姓)に英字
-入力</t>
-  </si>
-  <si>
-    <t>「カナ（姓）はカタカナ
-のみ入力してください」
-と表示</t>
-  </si>
-  <si>
-    <t>カナ(名)にひらがな
-入力</t>
-  </si>
-  <si>
-    <t>「たろう」と入力して
-確認</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「カナ(名)はカタカナ
-のみ入力してください」
-と表示
-</t>
-  </si>
-  <si>
-    <t>メール形式不正</t>
-  </si>
-  <si>
-    <t>「abc」と入力して確認</t>
-  </si>
-  <si>
-    <t>「メールアドレスは正しいメールアドレス形式で入力してください」と表示</t>
-  </si>
-  <si>
-    <t>パスワードに
-記号を入力</t>
-  </si>
-  <si>
-    <t>「abc123!」と入力
-して確認</t>
-  </si>
-  <si>
-    <t>「パスワードは半角
-英数字のみ
-入力してください」と
-表示</t>
-  </si>
-  <si>
-    <t>郵便番号に
-英字入力</t>
-  </si>
-  <si>
-    <t>「abc1234」と入力
-して確認</t>
-  </si>
-  <si>
-    <t>「郵便番号は半角数字
-7桁で入力して
-ください」と表示</t>
-  </si>
-  <si>
-    <t>都道府県
-未選択</t>
-  </si>
-  <si>
-    <t>プルダウンで
-空欄のまま確認</t>
-  </si>
-  <si>
-    <t>「住所（都道府県）が
-未選択です」と表示</t>
-  </si>
-  <si>
-    <t>住所（市区町村）に英字を入力</t>
-  </si>
-  <si>
-    <t>「asahikawa」と入力
-して確認</t>
-  </si>
-  <si>
-    <t>「市区町村はひらがな、カタカナ、漢字、数字、スペース、ハイフンのみ入力可能です。」と表示</t>
-  </si>
-  <si>
-    <t>住所（番地）に
-英字を入力</t>
-  </si>
-  <si>
-    <t>「a-a-a」と入力して
-確認</t>
-  </si>
-  <si>
-    <t>「番地はひらがな、カタカナ、漢字、数字、スペース、ハイフンのみ入力可能です。」と表示</t>
-  </si>
-  <si>
-    <t>正常入力→
-確認画面</t>
-  </si>
-  <si>
-    <t>全項目を正しく入力し
-「確認する」
-ボタンを押す</t>
-  </si>
-  <si>
-    <t>regist_confirm.phpに
-遷移し、入力値を
-表示</t>
+    <t>1. 同上 
+2. 「パスワード」に半角英
+数字（10文字以内）を入力 
+3. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>性別の表示確認</t>
+  </si>
+  <si>
+    <t>1. 同上 
+2. 「性別」を「男」または
+「女」に選択 
+3. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>郵便番号の
+表示確認</t>
+  </si>
+  <si>
+    <t>1. 同上 
+2. 「郵便番号」に半角数字
+7桁を入力
+3. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>都道府県の
+表示確認</t>
+  </si>
+  <si>
+    <t>1. 同上
+2. 「住所（都道府県）」に47
+都道府県から選択 
+3. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>市区町村の
+表示確認</t>
+  </si>
+  <si>
+    <t>1. 同上 
+2. 「住所（市区町村）」に
+ひらがな・漢字・数字・カタカナ・スペース・ハイフンを含む文字列を入力 
+3. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>番地の表示確認</t>
+  </si>
+  <si>
+    <t>1. 同上
+2. 「住所（番地）」にひらがな
+・漢字・数字・カタカナ・スペース・ハイフンを含む文字列を入力 3. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>アカウント権限
+の表示確認</t>
+  </si>
+  <si>
+    <t>1. 同上 
+2. 「アカウント権限」を
+「一般」または「管理者」に選択 3. 「確認する」ボタンを押す</t>
   </si>
   <si>
     <t>「前に戻る」
 ボタン</t>
   </si>
   <si>
-    <t>確認画面で
-「前に戻るボタン」を
-押す</t>
-  </si>
-  <si>
-    <t>regist.phpに遷移し
-入力内容を保持</t>
+    <t>1. 確認画面で「前に戻る」
+ボタンを押す</t>
   </si>
   <si>
     <t>「登録する」
 ボタン</t>
   </si>
   <si>
-    <t>確認画面で
-「登録するボタン」を
-押す</t>
-  </si>
-  <si>
-    <t>DBに新規登録され
-regist_complete.phpに
-遷移</t>
+    <t>1.XAMPPを起動する
+2. 確認画面で「登録する」
+ボタンを押す</t>
+  </si>
+  <si>
+    <t>完了画面表示</t>
+  </si>
+  <si>
+    <t>1. 登録完了後</t>
   </si>
   <si>
     <t>DB登録確認</t>
   </si>
   <si>
-    <t>登録後、MySQLで
-accountテーブルを確認</t>
-  </si>
-  <si>
-    <t>入力値が正しく保存
-されている(パスワードは
-ハッシュ化)</t>
-  </si>
-  <si>
-    <t>登録完了
-画面表示</t>
-  </si>
-  <si>
-    <t>登録後に完了画面が
-表示</t>
-  </si>
-  <si>
-    <t>「登録完了しました」と
-中央に表示され
-「TOPへ戻るボタン」も
-表示</t>
+    <t>1. 登録後、MySQLのaccount
+テーブルを確認</t>
+  </si>
+  <si>
+    <t>登録日時・
+更新日時確認</t>
+  </si>
+  <si>
+    <t>1. 登録後にDB確認</t>
+  </si>
+  <si>
+    <t>必須項目未入力</t>
+  </si>
+  <si>
+    <t>1. 登録画面で全項目を空欄のまま 2. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>名前（姓）に
+不正文字</t>
+  </si>
+  <si>
+    <t>1. 登録画面で全項目を正しく
+入力し、「名前（姓）」に英字・記号・絵文字などを入力
+2. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>名前（姓）の
+文字数制限</t>
+  </si>
+  <si>
+    <t>1. 登録画面で「名前（姓）」に
+11文字以上の漢字またはひらがなを入力</t>
+  </si>
+  <si>
+    <t>名前（名）に
+不正文字</t>
+  </si>
+  <si>
+    <t>1. 登録画面で全項目を正しく
+入力し、「名前（名）」に英字・記号・絵文字などを入力
+ 2. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>名前（名）の
+文字数制限</t>
+  </si>
+  <si>
+    <t>1. 登録画面で「名前（名）」に
+11文字以上の漢字またはひらがなを入力</t>
+  </si>
+  <si>
+    <t>カナ（姓）に
+不正文字</t>
+  </si>
+  <si>
+    <t>1. 登録画面で全項目を正しく
+入力し、「カナ（姓）」にひらがな・英字・絵文字などを入力 
+2. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>カナ（姓）の
+文字数制限</t>
+  </si>
+  <si>
+    <t>1. 登録画面で「カナ（姓）」に
+11文字以上のカタカナを入力</t>
+  </si>
+  <si>
+    <t>カナ（名）に
+不正文字</t>
+  </si>
+  <si>
+    <t>1. 登録画面で全項目を正しく
+入力し、「カナ（名）」にひらがな・英字・絵文字などを入力
+2. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>カナ（名）の文字数制限</t>
+  </si>
+  <si>
+    <t>1. 登録画面で「カナ（名）」に
+11文字以上のカタカナを入力</t>
+  </si>
+  <si>
+    <t>メールアドレス
+形式不正</t>
+  </si>
+  <si>
+    <t>1. 登録画面で全項目を正しく
+入力し、「メールアドレス」にアットマークなしの英字を入力 
+2. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>メールアドレスの文字数制限</t>
+  </si>
+  <si>
+    <t>1. 登録画面で「メール
+アドレス」に101文字以上の文字列を入力</t>
+  </si>
+  <si>
+    <t>パスワードに記号</t>
+  </si>
+  <si>
+    <t>1. 登録画面で全項目を正しく
+入力し、「パスワード」に記号を含む文字を入力
+2. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>パスワードの
+文字数制限</t>
+  </si>
+  <si>
+    <t>1. 登録画面で「パスワード」に
+11文字以上の半角英数字を入力</t>
+  </si>
+  <si>
+    <t>郵便番号に
+不正文字</t>
+  </si>
+  <si>
+    <t>1. 登録画面で全項目を正しく
+入力し、「郵便番号」に英字・記号・7桁以上の数字を入力
+2. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>郵便番号の
+文字数制限</t>
+  </si>
+  <si>
+    <t>1. 登録画面で「郵便番号」
+に8文字以上の半角数字を入力</t>
+  </si>
+  <si>
+    <t>都道府県未選択</t>
+  </si>
+  <si>
+    <t>1. 登録画面で全項目を正しく
+入力し、「住所（都道府県）」を空欄のままにする 
+2. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>市区町村に
+不正文字</t>
+  </si>
+  <si>
+    <t>1. 登録画面で全項目を
+正しく入力し、「住所（市区町村）」に絵文字・記号などを含む文字列を入力
+ 2. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>市区町村の
+文字数制限</t>
+  </si>
+  <si>
+    <t>1. 登録画面で「住所
+（市区町村）」にひらがな、カタカナ、漢字、数字、スペース、ハイフンのいずれか11文字以上の文字列を入力</t>
+  </si>
+  <si>
+    <t>番地に不正文字</t>
+  </si>
+  <si>
+    <t>1. 登録画面で全項目を正しく
+入力し、「住所（番地）」に絵文字・記号などを含む文字列を入力
+ 2. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>番地の文字数制限</t>
+  </si>
+  <si>
+    <t>1. 登録画面で「住所（番地）」
+にひらがな、カタカナ、漢字、数字、スペース、ハイフンいずれか101文字以上の文字列を入力</t>
+  </si>
+  <si>
+    <t>DB登録エラー
+発生時</t>
+  </si>
+  <si>
+    <t>1.コントロールパネルを開かず、登録処理メソッドに妥当な入力値を渡すが、DB接続を意図的に失敗させる</t>
+  </si>
+  <si>
+    <t>登録画面で
+ブラウザ戻る</t>
+  </si>
+  <si>
+    <t>1. 登録画面で入力後にブラウザ
+の「戻る」操作を行う</t>
   </si>
 </sst>
 </file>
@@ -287,7 +423,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +433,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,10 +557,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
@@ -433,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -441,9 +583,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,17 +595,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,352 +986,1008 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="28.25" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="11" max="13" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="52.5" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="93" customHeight="1">
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+    </row>
+    <row r="2" spans="1:13" ht="144" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="93" customHeight="1">
+      <c r="H2" s="20"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" ht="144" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="93" customHeight="1">
+      <c r="H3" s="20"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+    </row>
+    <row r="4" spans="1:13" ht="144" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="93" customHeight="1">
+      <c r="H4" s="20"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+    </row>
+    <row r="5" spans="1:13" ht="144" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="93" customHeight="1">
+      <c r="H5" s="20"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+    </row>
+    <row r="6" spans="1:13" ht="144" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="93" customHeight="1">
+      <c r="H6" s="20"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+    </row>
+    <row r="7" spans="1:13" ht="144" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="93" customHeight="1">
+      <c r="H7" s="20"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+    </row>
+    <row r="8" spans="1:13" ht="144" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="93" customHeight="1">
+      <c r="H8" s="20"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" spans="1:13" ht="144" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="93" customHeight="1">
+      <c r="H9" s="20"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" spans="1:13" ht="144" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="93" customHeight="1">
+      <c r="H10" s="20"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+    </row>
+    <row r="11" spans="1:13" ht="144" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="93" customHeight="1">
+      <c r="H11" s="20"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" spans="1:13" ht="144" customHeight="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="93" customHeight="1">
+      <c r="H12" s="20"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" spans="1:13" ht="144" customHeight="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="B13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="93" customHeight="1">
+      <c r="H13" s="20"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" spans="1:13" ht="144" customHeight="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="B14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="93" customHeight="1">
+      <c r="H14" s="20"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+    </row>
+    <row r="15" spans="1:13" ht="144" customHeight="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="B15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="93" customHeight="1">
+      <c r="H15" s="20"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+    </row>
+    <row r="16" spans="1:13" ht="144" customHeight="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="B16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="93" customHeight="1">
+      <c r="H16" s="20"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+    </row>
+    <row r="17" spans="1:13" ht="144" customHeight="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="B17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="93" customHeight="1">
+      <c r="H17" s="20"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+    </row>
+    <row r="18" spans="1:13" ht="144" customHeight="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+    </row>
+    <row r="19" spans="1:13" ht="144" customHeight="1">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+    </row>
+    <row r="20" spans="1:13" ht="144" customHeight="1">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+    </row>
+    <row r="21" spans="1:13" ht="144" customHeight="1">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+    </row>
+    <row r="22" spans="1:13" ht="144" customHeight="1">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="1:13" ht="144" customHeight="1">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+    </row>
+    <row r="24" spans="1:13" ht="144" customHeight="1">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+    </row>
+    <row r="25" spans="1:13" ht="144" customHeight="1">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
+      <c r="C25" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+    </row>
+    <row r="26" spans="1:13" ht="144" customHeight="1">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+    </row>
+    <row r="27" spans="1:13" ht="144" customHeight="1">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+    </row>
+    <row r="28" spans="1:13" ht="144" customHeight="1">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+    </row>
+    <row r="29" spans="1:13" ht="144" customHeight="1">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+    </row>
+    <row r="30" spans="1:13" ht="144" customHeight="1">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+    </row>
+    <row r="31" spans="1:13" ht="144" customHeight="1">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+    </row>
+    <row r="32" spans="1:13" ht="144" customHeight="1">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+    </row>
+    <row r="33" spans="1:13" ht="144" customHeight="1">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+    </row>
+    <row r="34" spans="1:13" ht="144" customHeight="1">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+    </row>
+    <row r="35" spans="1:13" ht="144" customHeight="1">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+    </row>
+    <row r="36" spans="1:13" ht="144" customHeight="1">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+    </row>
+    <row r="37" spans="1:13" ht="144" customHeight="1">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+    </row>
+    <row r="38" spans="1:13" ht="144" customHeight="1">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+    </row>
+    <row r="39" spans="1:13" ht="144" customHeight="1">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+    </row>
+    <row r="40" spans="1:13" ht="144" customHeight="1">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+    </row>
+    <row r="41" spans="1:13" ht="144" customHeight="1">
+      <c r="A41" s="21">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+    </row>
+    <row r="42" spans="1:13" ht="144" customHeight="1">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+    </row>
+    <row r="43" spans="1:13" ht="144" customHeight="1">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29203"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A380642-01CE-48E2-BC1B-8616C1F1B754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CED3909-10E4-4F7F-A9E5-C993CB836120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="160">
   <si>
     <t>No</t>
   </si>
@@ -67,6 +67,22 @@
   </si>
   <si>
     <t>TOPページのナビバーから「アカウント登録」をクリック</t>
+  </si>
+  <si>
+    <t>regist.phpに遷移し、
+登録フォームが表示される</t>
+  </si>
+  <si>
+    <t>TOPページのナビバーから「アカウント登録」をクリックしたら、登録フォームが表示された</t>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>杉村</t>
+  </si>
+  <si>
+    <t>ー</t>
   </si>
   <si>
     <t>Windows 11／
@@ -83,6 +99,16 @@
 3.「確認する」ボタンを押す</t>
   </si>
   <si>
+    <t>確認画面に「名前（姓）」の入力値が正しく表示</t>
+  </si>
+  <si>
+    <t>入力値が正しく表示</t>
+  </si>
+  <si>
+    <t>漢字とひらがなどちらも
+確認</t>
+  </si>
+  <si>
     <t>名前（名）の
 表示確認</t>
   </si>
@@ -93,6 +119,9 @@
 3. 「確認する」ボタンを押す</t>
   </si>
   <si>
+    <t>確認画面に「名前（名）」の入力値が正しく表示</t>
+  </si>
+  <si>
     <t>カナ（姓）の
 表示確認</t>
   </si>
@@ -103,6 +132,9 @@
 3. 「確認する」ボタンを押す</t>
   </si>
   <si>
+    <t>確認画面に「カナ（姓）」の入力値が正しく表示</t>
+  </si>
+  <si>
     <t>カナ（名）の表示確認</t>
   </si>
   <si>
@@ -112,6 +144,9 @@
 3. 「確認する」ボタンを押す</t>
   </si>
   <si>
+    <t>確認画面に「カナ（名）」の入力値が正しく表示</t>
+  </si>
+  <si>
     <t>メールアドレスの
 表示確認</t>
   </si>
@@ -122,6 +157,9 @@
 3. 「確認する」ボタンを押す</t>
   </si>
   <si>
+    <t>確認画面に「メールアドレス」の入力値が正しく表示</t>
+  </si>
+  <si>
     <t>パスワードの表示
 確認</t>
   </si>
@@ -132,6 +170,12 @@
 3. 「確認する」ボタンを押す</t>
   </si>
   <si>
+    <t>確認画面に「●」で表示</t>
+  </si>
+  <si>
+    <t>「●」で表示</t>
+  </si>
+  <si>
     <t>性別の表示確認</t>
   </si>
   <si>
@@ -141,6 +185,15 @@
 3. 「確認する」ボタンを押す</t>
   </si>
   <si>
+    <t>確認画面に選択した性別が表示</t>
+  </si>
+  <si>
+    <t>選択値が正しく表示</t>
+  </si>
+  <si>
+    <t>男、女どちらも確認</t>
+  </si>
+  <si>
     <t>郵便番号の
 表示確認</t>
   </si>
@@ -151,6 +204,9 @@
 3. 「確認する」ボタンを押す</t>
   </si>
   <si>
+    <t>確認画面に「郵便番号」の入力値が正しく表示</t>
+  </si>
+  <si>
     <t>都道府県の
 表示確認</t>
   </si>
@@ -161,6 +217,9 @@
 3. 「確認する」ボタンを押す</t>
   </si>
   <si>
+    <t>確認画面に選択した都道府県が表示</t>
+  </si>
+  <si>
     <t>市区町村の
 表示確認</t>
   </si>
@@ -171,6 +230,9 @@
 3. 「確認する」ボタンを押す</t>
   </si>
   <si>
+    <t>確認画面に入力値が正しく表示</t>
+  </si>
+  <si>
     <t>番地の表示確認</t>
   </si>
   <si>
@@ -188,6 +250,13 @@
 「一般」または「管理者」に選択 3. 「確認する」ボタンを押す</t>
   </si>
   <si>
+    <t>確認画面に選択した権限が表示</t>
+  </si>
+  <si>
+    <t>一般、管理者どちらも
+確認</t>
+  </si>
+  <si>
     <t>「前に戻る」
 ボタン</t>
   </si>
@@ -196,19 +265,38 @@
 ボタンを押す</t>
   </si>
   <si>
+    <t>regist.phpに戻り、入力内容が保持</t>
+  </si>
+  <si>
+    <t>前に戻るボタンを押しても入力値が保持されている</t>
+  </si>
+  <si>
     <t>「登録する」
 ボタン</t>
   </si>
   <si>
-    <t>1.XAMPPを起動する
+    <t>1.XAMPPコントロールパネルを起動する
 2. 確認画面で「登録する」
 ボタンを押す</t>
   </si>
   <si>
+    <t>DBに新規登録され、
+regist_complete.phpに遷移</t>
+  </si>
+  <si>
+    <t>登録するボタンを押すと、regist_complete.phpに遷移した</t>
+  </si>
+  <si>
     <t>完了画面表示</t>
   </si>
   <si>
     <t>1. 登録完了後</t>
+  </si>
+  <si>
+    <t>「登録完了しました」と中央に表示、「TOPへ戻る」ボタンも表示</t>
+  </si>
+  <si>
+    <t>登録画面に「登録完了しました」と中央に表示、「TOPへ戻る」ボタンも表示された</t>
   </si>
   <si>
     <t>DB登録確認</t>
@@ -218,6 +306,12 @@
 テーブルを確認</t>
   </si>
   <si>
+    <t>入力値が正しく保存されている（パスワードはハッシュ化）</t>
+  </si>
+  <si>
+    <t>MySQLのaccountテーブルに入力値が正しく保存され、パスワードはハッシュ化されている</t>
+  </si>
+  <si>
     <t>登録日時・
 更新日時確認</t>
   </si>
@@ -225,10 +319,25 @@
     <t>1. 登録後にDB確認</t>
   </si>
   <si>
+    <t>現在時刻（登録時刻）が正しく保存されている</t>
+  </si>
+  <si>
+    <t>DBに登録時刻が正しく保存されている</t>
+  </si>
+  <si>
     <t>必須項目未入力</t>
   </si>
   <si>
     <t>1. 登録画面で全項目を空欄のまま 2. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>各項目の下に赤字で「○○が未入力です」と表示</t>
+  </si>
+  <si>
+    <t>全項目未入力で確認ボタンを押すと下に赤字で表示されず、都道府県の下にだけ「リスト内の項目を選択してください。」と表示される。</t>
+  </si>
+  <si>
+    <t>×</t>
   </si>
   <si>
     <t>名前（姓）に
@@ -240,12 +349,28 @@
 2. 「確認する」ボタンを押す</t>
   </si>
   <si>
+    <t>「名前（姓）はひらがなまたは漢字で入力してください」と下に赤字で表示</t>
+  </si>
+  <si>
+    <t>名前(姓)に英字・記号・絵文字など入力すると、下に赤字で「名前（姓）はひらがなまたは漢字で入力してください」表示される。</t>
+  </si>
+  <si>
+    <t>英字・記号・絵文字
+全て確認</t>
+  </si>
+  <si>
     <t>名前（姓）の
 文字数制限</t>
   </si>
   <si>
     <t>1. 登録画面で「名前（姓）」に
 11文字以上の漢字またはひらがなを入力</t>
+  </si>
+  <si>
+    <t>11文字目が入力できず、10文字までしか入力されない</t>
+  </si>
+  <si>
+    <t>入力欄に10文字まで入力できた。11文字目は反映されず。</t>
   </si>
   <si>
     <t>名前（名）に
@@ -257,6 +382,12 @@
  2. 「確認する」ボタンを押す</t>
   </si>
   <si>
+    <t>「名前（名）はひらがなまたは漢字のみ入力してください」と下に赤字で表示</t>
+  </si>
+  <si>
+    <t>　名前(名)に英字・記号・絵文字など入力すると、下に赤字で「名前(名）はひらがなまたは漢字で入力してください」表示される。</t>
+  </si>
+  <si>
     <t>名前（名）の
 文字数制限</t>
   </si>
@@ -274,6 +405,12 @@
 2. 「確認する」ボタンを押す</t>
   </si>
   <si>
+    <t>「カナ（姓）はカタカナで入力してください」と下に赤字で表示</t>
+  </si>
+  <si>
+    <t>カナ(姓)にひらがな・英字・絵文字など入力すると、下に赤字で「カナ(姓）はカタカナで入力してください」表示される。</t>
+  </si>
+  <si>
     <t>カナ（姓）の
 文字数制限</t>
   </si>
@@ -291,6 +428,16 @@
 2. 「確認する」ボタンを押す</t>
   </si>
   <si>
+    <t>「カナ（名）はカタカナのみ入力してください」と下に赤字で表示</t>
+  </si>
+  <si>
+    <t>　カナ(名)にひらがな・英字・絵文字など入力すると、下に赤字で「カナ(名）はカタカナで入力してください」表示される。</t>
+  </si>
+  <si>
+    <t>ひらがな・記号・絵文字
+全て確認</t>
+  </si>
+  <si>
     <t>カナ（名）の文字数制限</t>
   </si>
   <si>
@@ -307,11 +454,27 @@
 2. 「確認する」ボタンを押す</t>
   </si>
   <si>
+    <t>「メールアドレスは正しいメールアドレス形式で入力してください」と下に赤字で表示</t>
+  </si>
+  <si>
+    <t>　メールアドレスにアットマークなしの英字で登録すると、赤字ではなく吹き出しのなかに黒字で【メールアドレスに「＠」を挿入してください。「○○」内に「@」がありません。】と表示される</t>
+  </si>
+  <si>
     <t>メールアドレスの文字数制限</t>
   </si>
   <si>
     <t>1. 登録画面で「メール
 アドレス」に101文字以上の文字列を入力</t>
+  </si>
+  <si>
+    <t>101文字目が入力できず、100文字までしか入力されない</t>
+  </si>
+  <si>
+    <t>入力欄に100文字まで入力できた。101文字目は反映されず。</t>
+  </si>
+  <si>
+    <t>コンソールタブにて
+確認</t>
   </si>
   <si>
     <t>パスワードに記号</t>
@@ -322,6 +485,12 @@
 2. 「確認する」ボタンを押す</t>
   </si>
   <si>
+    <t>「パスワードは半角英数字のみで入力してください」と下に赤字で表示</t>
+  </si>
+  <si>
+    <t>　パスワードに記号を含む文字を入力すると、下に赤字で「パスワードは半角英数字のみで入力してください」と表示される。</t>
+  </si>
+  <si>
     <t>パスワードの
 文字数制限</t>
   </si>
@@ -335,8 +504,14 @@
   </si>
   <si>
     <t>1. 登録画面で全項目を正しく
-入力し、「郵便番号」に英字・記号・7桁以上の数字を入力
+入力し、「郵便番号」に英字または記号を7つ入力
 2. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>「郵便番号は半角数字7桁で入力してください」と下に赤字で表示</t>
+  </si>
+  <si>
+    <t>郵便番号に英字または記号を７つ入力すると、下に赤字で「郵便番号は半角数字7桁で入力してください。」と表示される。</t>
   </si>
   <si>
     <t>郵便番号の
@@ -345,6 +520,12 @@
   <si>
     <t>1. 登録画面で「郵便番号」
 に8文字以上の半角数字を入力</t>
+  </si>
+  <si>
+    <t>8文字目が入力できず、7文字までしか入力されない</t>
+  </si>
+  <si>
+    <t>入力欄に7文字まで入力できた。8文字目は反映されず。</t>
   </si>
   <si>
     <t>都道府県未選択</t>
@@ -355,6 +536,12 @@
 2. 「確認する」ボタンを押す</t>
   </si>
   <si>
+    <t>「住所（都道府県）が未選択です」と下に赤字で表示</t>
+  </si>
+  <si>
+    <t>　住所（都道府県）を空欄のままにすると、吹き出しの中に黒字で「リスト内の項目を選択してください」と表示される。</t>
+  </si>
+  <si>
     <t>市区町村に
 不正文字</t>
   </si>
@@ -364,6 +551,16 @@
  2. 「確認する」ボタンを押す</t>
   </si>
   <si>
+    <t>「市区町村はひらがな、カタカナ、漢字、数字、スペース、ハイフンのみ入力可能です」と表示</t>
+  </si>
+  <si>
+    <t>　住所（市区町村）に絵文字・記号などを含む文字列を入力すると下に赤字で「市区町村はひらがな、カタカナ、漢字、数字、スペース、ハイフンのみ入力可能です」と表示される。</t>
+  </si>
+  <si>
+    <t>絵文字・記号
+どちらも確認</t>
+  </si>
+  <si>
     <t>市区町村の
 文字数制限</t>
   </si>
@@ -380,6 +577,12 @@
  2. 「確認する」ボタンを押す</t>
   </si>
   <si>
+    <t>「番地はひらがな、カタカナ、漢字、数字、スペース、ハイフンのみ入力可能です」と表示される</t>
+  </si>
+  <si>
+    <t>　　住所（番地）に絵文字・記号などを含む文字列を入力すると下に赤字で「市区町村はひらがな、カタカナ、漢字、数字、スペース、ハイフンのみ入力可能です」と表示される。</t>
+  </si>
+  <si>
     <t>番地の文字数制限</t>
   </si>
   <si>
@@ -391,22 +594,37 @@
 発生時</t>
   </si>
   <si>
-    <t>1.コントロールパネルを開かず、登録処理メソッドに妥当な入力値を渡すが、DB接続を意図的に失敗させる</t>
+    <t>1.XAMPPのコントロールパネルで、ApacheのみstartさせMySQLはstopさせる
+2.登録するボタンを押す</t>
+  </si>
+  <si>
+    <t>「エラーが発生したためアカウント登録できません。」と赤字表示</t>
+  </si>
+  <si>
+    <t>　XAMPPのコントロールパネルで、ApacheのみstartさせMySQLはstopさせ、登録ボタンを押すと「エラーが発生したためアカウント登録できません。」と赤字で表示される</t>
   </si>
   <si>
     <t>登録画面で
-ブラウザ戻る</t>
+ブラウザ戻ったあとに重複登録エラー</t>
   </si>
   <si>
     <t>1. 登録画面で入力後にブラウザ
-の「戻る」操作を行う</t>
+の「戻る」操作を行う
+2.もう一度登録するを押す</t>
+  </si>
+  <si>
+    <t>入力内容が保持され、重複登録しようとすると「エラーが発生したためアカウント登録できません。」と赤字表示</t>
+  </si>
+  <si>
+    <t>登録画面で入力後にブラウザ
+の「戻る」操作を行うと入力内容が保持され、同様の内容を重複登録しようとすると「エラーが発生したためアカウント登録できません。」と赤字で表示される</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +639,13 @@
       <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -443,7 +668,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -557,6 +782,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -566,6 +806,67 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -575,7 +876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -604,18 +905,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -634,19 +923,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -988,8 +1310,8 @@
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -999,7 +1321,7 @@
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="9" max="9" width="21.375" customWidth="1"/>
     <col min="10" max="10" width="15.375" customWidth="1"/>
     <col min="11" max="13" width="16.875" customWidth="1"/>
   </cols>
@@ -1035,9 +1357,9 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="144" customHeight="1">
       <c r="A2" s="2">
@@ -1049,945 +1371,1425 @@
       <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="24" t="s">
+      <c r="D2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="E2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="28">
+        <v>45883</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="144" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+        <v>19</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="144" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+        <v>24</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:13" ht="144" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:13" ht="144" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:13" ht="144" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="F7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="144" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+        <v>36</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:13" ht="144" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
+        <v>40</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:13" ht="144" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" spans="1:13" ht="144" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:13" ht="144" customHeight="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
     </row>
     <row r="13" spans="1:13" ht="144" customHeight="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
+        <v>54</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:13" ht="144" customHeight="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
+        <v>56</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:13" ht="144" customHeight="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
+        <v>60</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13" ht="144" customHeight="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
     </row>
     <row r="17" spans="1:13" ht="144" customHeight="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
+        <v>68</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:13" ht="144" customHeight="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
+        <v>72</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
     </row>
     <row r="19" spans="1:13" ht="144" customHeight="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
+        <v>76</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
     </row>
     <row r="20" spans="1:13" ht="144" customHeight="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
+        <v>80</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
     </row>
     <row r="21" spans="1:13" ht="144" customHeight="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
+        <v>85</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
     </row>
     <row r="22" spans="1:13" ht="144" customHeight="1">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
+        <v>90</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13" ht="144" customHeight="1">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
+        <v>94</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
     </row>
     <row r="24" spans="1:13" ht="144" customHeight="1">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
+        <v>98</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
     </row>
     <row r="25" spans="1:13" ht="144" customHeight="1">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
+        <v>100</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
     </row>
     <row r="26" spans="1:13" ht="144" customHeight="1">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
+        <v>104</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
     </row>
     <row r="27" spans="1:13" ht="144" customHeight="1">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
+        <v>106</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
     </row>
     <row r="28" spans="1:13" ht="144" customHeight="1">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
+        <v>111</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
     </row>
     <row r="29" spans="1:13" ht="144" customHeight="1">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
+        <v>113</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
     </row>
     <row r="30" spans="1:13" ht="144" customHeight="1">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
+        <v>117</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
     </row>
     <row r="31" spans="1:13" ht="144" customHeight="1">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
+        <v>122</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
     </row>
     <row r="32" spans="1:13" ht="144" customHeight="1">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
+        <v>126</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
     </row>
     <row r="33" spans="1:13" ht="144" customHeight="1">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
+        <v>128</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
     </row>
     <row r="34" spans="1:13" ht="144" customHeight="1">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
+        <v>132</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
     </row>
     <row r="35" spans="1:13" ht="144" customHeight="1">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
+        <v>136</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
     </row>
     <row r="36" spans="1:13" ht="144" customHeight="1">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
+        <v>140</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
     </row>
     <row r="37" spans="1:13" ht="144" customHeight="1">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
+        <v>145</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
     </row>
     <row r="38" spans="1:13" ht="144" customHeight="1">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
+        <v>147</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
     </row>
     <row r="39" spans="1:13" ht="144" customHeight="1">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
+        <v>151</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
     </row>
     <row r="40" spans="1:13" ht="144" customHeight="1">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
+        <v>153</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="26">
+        <v>45883</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
     </row>
     <row r="41" spans="1:13" ht="144" customHeight="1">
-      <c r="A41" s="21">
+      <c r="A41" s="16">
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
+        <v>157</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="30">
+        <v>45883</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
     </row>
     <row r="42" spans="1:13" ht="144" customHeight="1">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
     </row>
     <row r="43" spans="1:13" ht="144" customHeight="1">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29212"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CED3909-10E4-4F7F-A9E5-C993CB836120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EA923B4-8828-4D1B-BB05-BC2E2F52BE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="1" r:id="rId1"/>
+    <sheet name="結合テスト" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="218">
   <si>
     <t>No</t>
   </si>
@@ -618,6 +619,218 @@
   <si>
     <t>登録画面で入力後にブラウザ
 の「戻る」操作を行うと入力内容が保持され、同様の内容を重複登録しようとすると「エラーが発生したためアカウント登録できません。」と赤字で表示される</t>
+  </si>
+  <si>
+    <t>1. TOPページを表示する 
+2. ナビバーの「アカウント
+登録」ボタンをクリック</t>
+  </si>
+  <si>
+    <t>regist.php に遷移し、登録フォームが表示される</t>
+  </si>
+  <si>
+    <t>確認画面で全項目の表示確認</t>
+  </si>
+  <si>
+    <t>1. 登録画面で全項目を
+仕様通りに入力 
+2. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>確認画面にすべての入力値が正しく表示される（パスワードは●表示）</t>
+  </si>
+  <si>
+    <t>「前に戻る」ボタンの動作</t>
+  </si>
+  <si>
+    <t>regist.php に戻り、入力値が保持されている</t>
+  </si>
+  <si>
+    <t>「登録する」ボタンの動作</t>
+  </si>
+  <si>
+    <t>1. 確認画面で「登録する」
+ボタンを押す</t>
+  </si>
+  <si>
+    <t>DBに登録され、regist_complete.php に遷移する</t>
+  </si>
+  <si>
+    <t>1. 登録完了後に完了画面を
+表示する</t>
+  </si>
+  <si>
+    <t>「登録完了しました」と中央に表示、「TOPへ戻る」ボタンも表示される</t>
+  </si>
+  <si>
+    <t>TOPページへ戻る</t>
+  </si>
+  <si>
+    <t>1. 完了画面で「TOPへ戻る」
+ボタンを押す</t>
+  </si>
+  <si>
+    <t>TOPページに遷移する</t>
+  </si>
+  <si>
+    <t>1. 登録後、MySQLの account テーブルを確認</t>
+  </si>
+  <si>
+    <t>1. 登録後に DB を確認</t>
+  </si>
+  <si>
+    <t>現在時刻が registered_time として保存されている</t>
+  </si>
+  <si>
+    <t>性別・権限のDB登録確認</t>
+  </si>
+  <si>
+    <t>gender, authority カラムに正しい値（0/1）が保存されている</t>
+  </si>
+  <si>
+    <t>削除フラグの初期値確認</t>
+  </si>
+  <si>
+    <t>delete_flag カラムが 0（有効）で保存されている</t>
+  </si>
+  <si>
+    <t>全項目未入力時のエラー表示</t>
+  </si>
+  <si>
+    <t>1. 登録画面で全項目を空欄の
+ままにする
+ 2. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>各項目の下に赤字で「○○が未入力です」と表示される</t>
+  </si>
+  <si>
+    <t>不正文字入力（名前・カナ・メール・パスワード・住所）</t>
+  </si>
+  <si>
+    <t>1. 登録画面で各項目に仕様外の
+文字（英字・記号・絵文字など）を入力 
+2. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>該当項目の下に赤字で「○○は○○で入力してください」と表示される</t>
+  </si>
+  <si>
+    <t>文字数制限（名前・カナ・メール・パスワード・住所）</t>
+  </si>
+  <si>
+    <t>1. 各項目に最大文字数＋1文字
+を入力 
+2. 入力欄に文字が反映されるか
+確認</t>
+  </si>
+  <si>
+    <t>最大文字数までしか入力できず、超過分は反映されない</t>
+  </si>
+  <si>
+    <t>メールアドレス形式不正</t>
+  </si>
+  <si>
+    <t>1. 「メールアドレス」にアット
+マークなしの文字列を入力 
+2. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>赤字で「メールアドレスは正しい形式で入力してください」と表示される</t>
+  </si>
+  <si>
+    <t>都道府県未選択時のエラー表示</t>
+  </si>
+  <si>
+    <t>1. 「住所（都道府県）」を空欄
+のままにする 
+2. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>赤字で「住所（都道府県）が未選択です」と表示される</t>
+  </si>
+  <si>
+    <t>1. 「郵便番号」に英字または
+記号を入力 
+2. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>赤字で「郵便番号は半角数字7桁で入力してください」と表示される</t>
+  </si>
+  <si>
+    <t>1. 「郵便番号」に8桁以上の
+数字を入力</t>
+  </si>
+  <si>
+    <t>7桁までしか入力できず、8桁目は反映されない</t>
+  </si>
+  <si>
+    <t>パスワードに記号を含む</t>
+  </si>
+  <si>
+    <t>1. 「パスワード」に記号を
+含む文字列を入力 
+2. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>赤字で「パスワードは半角英数字のみで入力してください」と表示される</t>
+  </si>
+  <si>
+    <t>市区町村に
+絵文字・
+記号を含む</t>
+  </si>
+  <si>
+    <t>1. 「住所（市区町村）」に
+絵文字・記号を含む文字列を入力 
+2. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>赤字で「市区町村はひらがな、カタカナ、漢字、数字、スペース、ハイフンのみ入力可能です」と表示される</t>
+  </si>
+  <si>
+    <t>番地に絵文字・記号を含む</t>
+  </si>
+  <si>
+    <t>1. 「住所（番地）」に絵文字
+・記号を含む文字列を入力 
+2. 「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>赤字で「番地はひらがな、カタカナ、漢字、数字、スペース、ハイフンのみ入力可能です」と表示される</t>
+  </si>
+  <si>
+    <t>DB接続エラー時の表示</t>
+  </si>
+  <si>
+    <t>1. XAMPPのコントロール
+パネルで Apache のみ start、MySQL は stop 
+2. 登録画面で全項目を正しく
+入力
+ 3. 「確認する」→「登録
+する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>「エラーが発生したためアカウント登録できません。」と赤字で表示される</t>
+  </si>
+  <si>
+    <t>重複登録時のエラー表示</t>
+  </si>
+  <si>
+    <t>1. 登録画面で同じ内容を2回入力 2. 1回目は正常に登録 
+3. 2回目に「登録する」
+ボタンを押す</t>
+  </si>
+  <si>
+    <t>登録失敗時の画面遷移制御</t>
+  </si>
+  <si>
+    <t>1. DB接続エラーまたは重複
+登録エラーを発生させる 
+2. 「登録する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>完了画面に遷移せず、確認画面に留まりエラー表示される</t>
   </si>
 </sst>
 </file>
@@ -876,7 +1089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -970,6 +1183,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1310,8 +1529,8 @@
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2795,4 +3014,882 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B470A98-FC3A-4A1C-8D4D-E450DF178E6D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="28.25" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="21.375" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="11" max="13" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="52.5" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" ht="144" customHeight="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" ht="144" customHeight="1">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" ht="144" customHeight="1">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" ht="144" customHeight="1">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" ht="144" customHeight="1">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" ht="144" customHeight="1">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" ht="144" customHeight="1">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" ht="144" customHeight="1">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" ht="144" customHeight="1">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" ht="144" customHeight="1">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" ht="144" customHeight="1">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" ht="144" customHeight="1">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" ht="144" customHeight="1">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" ht="144" customHeight="1">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" ht="144" customHeight="1">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:13" ht="144" customHeight="1">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:13" ht="144" customHeight="1">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:13" ht="144" customHeight="1">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="1:13" ht="144" customHeight="1">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:13" ht="144" customHeight="1">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:13" ht="144" customHeight="1">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13" ht="144" customHeight="1">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:13" ht="144" customHeight="1">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" ht="144" customHeight="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:13" ht="144" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="1:13" ht="144" customHeight="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="1:13" ht="144" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+    </row>
+    <row r="29" spans="1:13" ht="144" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="1:13" ht="144" customHeight="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+    </row>
+    <row r="31" spans="1:13" ht="144" customHeight="1">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="1:13" ht="144" customHeight="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+    </row>
+    <row r="33" spans="1:13" ht="144" customHeight="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+    </row>
+    <row r="34" spans="1:13" ht="144" customHeight="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+    </row>
+    <row r="35" spans="1:13" ht="144" customHeight="1">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+    </row>
+    <row r="36" spans="1:13" ht="144" customHeight="1">
+      <c r="A36" s="2"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+    </row>
+    <row r="37" spans="1:13" ht="144" customHeight="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+    </row>
+    <row r="38" spans="1:13" ht="144" customHeight="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39" spans="1:13" ht="144" customHeight="1">
+      <c r="A39" s="2"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+    </row>
+    <row r="40" spans="1:13" ht="144" customHeight="1">
+      <c r="A40" s="2"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+    </row>
+    <row r="41" spans="1:13" ht="144" customHeight="1">
+      <c r="A41" s="16"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+    </row>
+    <row r="42" spans="1:13" ht="144" customHeight="1">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="1:13" ht="144" customHeight="1">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
+</worksheet>
 </file>
--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29212"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EA923B4-8828-4D1B-BB05-BC2E2F52BE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEBDC46E-12BE-48E5-87A4-4F3B5DF70E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="195">
   <si>
     <t>No</t>
   </si>
@@ -629,6 +629,12 @@
     <t>regist.php に遷移し、登録フォームが表示される</t>
   </si>
   <si>
+    <t>単体テストでも
+実施済だが、複数画面
+連携のため結合テスト
+でも実施</t>
+  </si>
+  <si>
     <t>確認画面で全項目の表示確認</t>
   </si>
   <si>
@@ -640,6 +646,11 @@
     <t>確認画面にすべての入力値が正しく表示される（パスワードは●表示）</t>
   </si>
   <si>
+    <t>全項目確認画面に正しく
+表示され、パスワードは●で
+表示された</t>
+  </si>
+  <si>
     <t>「前に戻る」ボタンの動作</t>
   </si>
   <si>
@@ -673,131 +684,37 @@
     <t>TOPページに遷移する</t>
   </si>
   <si>
+    <t>「TOPへ戻る」を押したら、TOPページへ遷移した</t>
+  </si>
+  <si>
     <t>1. 登録後、MySQLの account テーブルを確認</t>
   </si>
   <si>
+    <t>単体テストで登録処理は確認済だが、画面操作を通じた一連の流れの中でDB登録を再確認するため、結合テストでも実施</t>
+  </si>
+  <si>
     <t>1. 登録後に DB を確認</t>
   </si>
   <si>
     <t>現在時刻が registered_time として保存されている</t>
   </si>
   <si>
+    <t>登録後のDBにはregistered_timeとして現在時刻が保存されている</t>
+  </si>
+  <si>
     <t>性別・権限のDB登録確認</t>
   </si>
   <si>
     <t>gender, authority カラムに正しい値（0/1）が保存されている</t>
   </si>
   <si>
+    <t>登録後のDBには、0/1で表示されず、全ての選択で０で表示されてしまっている</t>
+  </si>
+  <si>
     <t>削除フラグの初期値確認</t>
   </si>
   <si>
     <t>delete_flag カラムが 0（有効）で保存されている</t>
-  </si>
-  <si>
-    <t>全項目未入力時のエラー表示</t>
-  </si>
-  <si>
-    <t>1. 登録画面で全項目を空欄の
-ままにする
- 2. 「確認する」ボタンを押す</t>
-  </si>
-  <si>
-    <t>各項目の下に赤字で「○○が未入力です」と表示される</t>
-  </si>
-  <si>
-    <t>不正文字入力（名前・カナ・メール・パスワード・住所）</t>
-  </si>
-  <si>
-    <t>1. 登録画面で各項目に仕様外の
-文字（英字・記号・絵文字など）を入力 
-2. 「確認する」ボタンを押す</t>
-  </si>
-  <si>
-    <t>該当項目の下に赤字で「○○は○○で入力してください」と表示される</t>
-  </si>
-  <si>
-    <t>文字数制限（名前・カナ・メール・パスワード・住所）</t>
-  </si>
-  <si>
-    <t>1. 各項目に最大文字数＋1文字
-を入力 
-2. 入力欄に文字が反映されるか
-確認</t>
-  </si>
-  <si>
-    <t>最大文字数までしか入力できず、超過分は反映されない</t>
-  </si>
-  <si>
-    <t>メールアドレス形式不正</t>
-  </si>
-  <si>
-    <t>1. 「メールアドレス」にアット
-マークなしの文字列を入力 
-2. 「確認する」ボタンを押す</t>
-  </si>
-  <si>
-    <t>赤字で「メールアドレスは正しい形式で入力してください」と表示される</t>
-  </si>
-  <si>
-    <t>都道府県未選択時のエラー表示</t>
-  </si>
-  <si>
-    <t>1. 「住所（都道府県）」を空欄
-のままにする 
-2. 「確認する」ボタンを押す</t>
-  </si>
-  <si>
-    <t>赤字で「住所（都道府県）が未選択です」と表示される</t>
-  </si>
-  <si>
-    <t>1. 「郵便番号」に英字または
-記号を入力 
-2. 「確認する」ボタンを押す</t>
-  </si>
-  <si>
-    <t>赤字で「郵便番号は半角数字7桁で入力してください」と表示される</t>
-  </si>
-  <si>
-    <t>1. 「郵便番号」に8桁以上の
-数字を入力</t>
-  </si>
-  <si>
-    <t>7桁までしか入力できず、8桁目は反映されない</t>
-  </si>
-  <si>
-    <t>パスワードに記号を含む</t>
-  </si>
-  <si>
-    <t>1. 「パスワード」に記号を
-含む文字列を入力 
-2. 「確認する」ボタンを押す</t>
-  </si>
-  <si>
-    <t>赤字で「パスワードは半角英数字のみで入力してください」と表示される</t>
-  </si>
-  <si>
-    <t>市区町村に
-絵文字・
-記号を含む</t>
-  </si>
-  <si>
-    <t>1. 「住所（市区町村）」に
-絵文字・記号を含む文字列を入力 
-2. 「確認する」ボタンを押す</t>
-  </si>
-  <si>
-    <t>赤字で「市区町村はひらがな、カタカナ、漢字、数字、スペース、ハイフンのみ入力可能です」と表示される</t>
-  </si>
-  <si>
-    <t>番地に絵文字・記号を含む</t>
-  </si>
-  <si>
-    <t>1. 「住所（番地）」に絵文字
-・記号を含む文字列を入力 
-2. 「確認する」ボタンを押す</t>
-  </si>
-  <si>
-    <t>赤字で「番地はひらがな、カタカナ、漢字、数字、スペース、ハイフンのみ入力可能です」と表示される</t>
   </si>
   <si>
     <t>DB接続エラー時の表示</t>
@@ -814,23 +731,19 @@
     <t>「エラーが発生したためアカウント登録できません。」と赤字で表示される</t>
   </si>
   <si>
+    <t>XAMPPのコントロールパネルで、ApacheのみstartさせMySQLはstopさせ、登録ボタンを押すと「エラーが発生したためアカウント登録できません。」と赤字で表示される</t>
+  </si>
+  <si>
     <t>重複登録時のエラー表示</t>
   </si>
   <si>
     <t>1. 登録画面で同じ内容を2回入力 2. 1回目は正常に登録 
-3. 2回目に「登録する」
+3.ブラウザバッグ
+4. 2回目に「登録する」
 ボタンを押す</t>
   </si>
   <si>
-    <t>登録失敗時の画面遷移制御</t>
-  </si>
-  <si>
-    <t>1. DB接続エラーまたは重複
-登録エラーを発生させる 
-2. 「登録する」ボタンを押す</t>
-  </si>
-  <si>
-    <t>完了画面に遷移せず、確認画面に留まりエラー表示される</t>
+    <t>重複登録すると、「エラーが発生したためアカウント登録できません。」と赤字で表示される</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1002,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1190,12 +1103,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF94"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1529,8 +1450,8 @@
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3023,8 +2944,8 @@
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3087,12 +3008,24 @@
       <c r="D2" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="18"/>
+      <c r="E2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="28">
+        <v>45886</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
@@ -3102,20 +3035,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="26">
+        <v>45886</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="18"/>
+      <c r="J3" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
@@ -3125,20 +3070,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="18"/>
+        <v>168</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="28">
+        <v>45886</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
@@ -3148,20 +3105,32 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="26">
+        <v>45886</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -3174,17 +3143,29 @@
         <v>67</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="18"/>
+        <v>173</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="28">
+        <v>45886</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
@@ -3194,20 +3175,32 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="18"/>
+        <v>176</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="26">
+        <v>45886</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
@@ -3220,17 +3213,29 @@
         <v>71</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="18"/>
+      <c r="E8" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="28">
+        <v>45886</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
@@ -3243,17 +3248,29 @@
         <v>75</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="18"/>
+        <v>181</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="26">
+        <v>45886</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
@@ -3263,20 +3280,32 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="18"/>
+        <v>184</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="28">
+        <v>45886</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
@@ -3286,20 +3315,32 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>176</v>
-      </c>
       <c r="D11" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="18"/>
+        <v>187</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="26">
+        <v>45886</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
@@ -3309,581 +3350,237 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="18"/>
+        <v>190</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="28">
+        <v>45886</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
     </row>
     <row r="13" spans="1:13" ht="144" customHeight="1">
-      <c r="A13" s="2">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="18"/>
+      <c r="B13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="30">
+        <v>45886</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:13" ht="144" customHeight="1">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="18"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:13" ht="144" customHeight="1">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="18"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13" ht="144" customHeight="1">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="18"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" ht="144" customHeight="1">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="18"/>
+    <row r="17" spans="11:13" ht="144" customHeight="1">
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13" ht="144" customHeight="1">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="18"/>
+    <row r="18" spans="11:13" ht="144" customHeight="1">
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="1:13" ht="144" customHeight="1">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="18"/>
+    <row r="19" spans="11:13" ht="144" customHeight="1">
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
     </row>
-    <row r="20" spans="1:13" ht="144" customHeight="1">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="18"/>
+    <row r="20" spans="11:13" ht="144" customHeight="1">
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
     </row>
-    <row r="21" spans="1:13" ht="144" customHeight="1">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="18"/>
+    <row r="21" spans="11:13" ht="144" customHeight="1">
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" spans="1:13" ht="144" customHeight="1">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="18"/>
+    <row r="22" spans="11:13" ht="144" customHeight="1">
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
     </row>
-    <row r="23" spans="1:13" ht="144" customHeight="1">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="18"/>
+    <row r="23" spans="11:13" ht="144" customHeight="1">
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
     </row>
-    <row r="24" spans="1:13" ht="144" customHeight="1">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="18"/>
+    <row r="24" spans="11:13" ht="144" customHeight="1">
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
     </row>
-    <row r="25" spans="1:13" ht="144" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="18"/>
+    <row r="25" spans="11:13" ht="144" customHeight="1">
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
     </row>
-    <row r="26" spans="1:13" ht="144" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="18"/>
+    <row r="26" spans="11:13" ht="144" customHeight="1">
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
     </row>
-    <row r="27" spans="1:13" ht="144" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="18"/>
+    <row r="27" spans="11:13" ht="144" customHeight="1">
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" spans="1:13" ht="144" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="18"/>
+    <row r="28" spans="11:13" ht="144" customHeight="1">
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:13" ht="144" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="18"/>
+    <row r="29" spans="11:13" ht="144" customHeight="1">
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
     </row>
-    <row r="30" spans="1:13" ht="144" customHeight="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="18"/>
+    <row r="30" spans="11:13" ht="144" customHeight="1">
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:13" ht="144" customHeight="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="18"/>
+    <row r="31" spans="11:13" ht="144" customHeight="1">
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
     </row>
-    <row r="32" spans="1:13" ht="144" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="18"/>
+    <row r="32" spans="11:13" ht="144" customHeight="1">
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
     </row>
-    <row r="33" spans="1:13" ht="144" customHeight="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="18"/>
+    <row r="33" spans="11:13" ht="144" customHeight="1">
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
     </row>
-    <row r="34" spans="1:13" ht="144" customHeight="1">
-      <c r="A34" s="2"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="18"/>
+    <row r="34" spans="11:13" ht="144" customHeight="1">
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" spans="1:13" ht="144" customHeight="1">
-      <c r="A35" s="2"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="18"/>
+    <row r="35" spans="11:13" ht="144" customHeight="1">
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
     </row>
-    <row r="36" spans="1:13" ht="144" customHeight="1">
-      <c r="A36" s="2"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="18"/>
+    <row r="36" spans="11:13" ht="144" customHeight="1">
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
     </row>
-    <row r="37" spans="1:13" ht="144" customHeight="1">
-      <c r="A37" s="2"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="18"/>
+    <row r="37" spans="11:13" ht="144" customHeight="1">
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="1:13" ht="144" customHeight="1">
-      <c r="A38" s="2"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="18"/>
+    <row r="38" spans="11:13" ht="144" customHeight="1">
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
     </row>
-    <row r="39" spans="1:13" ht="144" customHeight="1">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="18"/>
+    <row r="39" spans="11:13" ht="144" customHeight="1">
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
     </row>
-    <row r="40" spans="1:13" ht="144" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="18"/>
+    <row r="40" spans="11:13" ht="144" customHeight="1">
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
     </row>
-    <row r="41" spans="1:13" ht="144" customHeight="1">
-      <c r="A41" s="16"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="31"/>
+    <row r="41" spans="11:13" ht="144" customHeight="1">
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
       <c r="M41" s="14"/>
     </row>
-    <row r="42" spans="1:13" ht="144" customHeight="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
+    <row r="42" spans="11:13" ht="144" customHeight="1">
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
     </row>
-    <row r="43" spans="1:13" ht="144" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
+    <row r="43" spans="11:13" ht="144" customHeight="1">
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29212"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEBDC46E-12BE-48E5-87A4-4F3B5DF70E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B631003A-86DA-4D46-A17F-204B63BC1D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="198">
   <si>
     <t>No</t>
   </si>
@@ -58,7 +58,7 @@
     <t>確認日付</t>
   </si>
   <si>
-    <t>備考</t>
+    <t>備考・修正履歴</t>
   </si>
   <si>
     <t>環境</t>
@@ -335,10 +335,14 @@
     <t>各項目の下に赤字で「○○が未入力です」と表示</t>
   </si>
   <si>
-    <t>全項目未入力で確認ボタンを押すと下に赤字で表示されず、都道府県の下にだけ「リスト内の項目を選択してください。」と表示される。</t>
+    <t>全項目未入力で確認ボタンを押すと下に赤字で表示されず、都道府県の下にのみ吹き出しの中に黒字で「リスト内の項目を選択してください」と表示される。</t>
   </si>
   <si>
     <t>×</t>
+  </si>
+  <si>
+    <t>required属性を外して
+実行</t>
   </si>
   <si>
     <t>名前（姓）に
@@ -459,6 +463,12 @@
   </si>
   <si>
     <t>　メールアドレスにアットマークなしの英字で登録すると、赤字ではなく吹き出しのなかに黒字で【メールアドレスに「＠」を挿入してください。「○○」内に「@」がありません。】と表示される</t>
+  </si>
+  <si>
+    <t>&lt;input type="email"...&gt;
+を
+&lt;input type="text"...&gt;に
+修正</t>
   </si>
   <si>
     <t>メールアドレスの文字数制限</t>
@@ -709,6 +719,12 @@
   </si>
   <si>
     <t>登録後のDBには、0/1で表示されず、全ての選択で０で表示されてしまっている</t>
+  </si>
+  <si>
+    <t>構造から
+gender, authority 
+カラムの型を
+TINYINTに変更</t>
   </si>
   <si>
     <t>削除フラグの初期値確認</t>
@@ -1450,8 +1466,8 @@
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2156,8 +2172,8 @@
       <c r="H20" s="26">
         <v>45883</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>16</v>
+      <c r="I20" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="J20" s="18" t="s">
         <v>17</v>
@@ -2171,16 +2187,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>14</v>
@@ -2192,7 +2208,7 @@
         <v>45883</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J21" s="18" t="s">
         <v>17</v>
@@ -2206,16 +2222,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>14</v>
@@ -2241,16 +2257,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F23" s="22" t="s">
         <v>14</v>
@@ -2262,7 +2278,7 @@
         <v>45883</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J23" s="18" t="s">
         <v>17</v>
@@ -2276,16 +2292,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>14</v>
@@ -2311,16 +2327,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>14</v>
@@ -2332,7 +2348,7 @@
         <v>45883</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J25" s="18" t="s">
         <v>17</v>
@@ -2346,16 +2362,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>14</v>
@@ -2381,16 +2397,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>14</v>
@@ -2402,7 +2418,7 @@
         <v>45883</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J27" s="18" t="s">
         <v>17</v>
@@ -2416,16 +2432,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>14</v>
@@ -2451,16 +2467,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>83</v>
@@ -2471,8 +2487,8 @@
       <c r="H29" s="26">
         <v>45883</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>16</v>
+      <c r="I29" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="J29" s="18" t="s">
         <v>17</v>
@@ -2486,16 +2502,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F30" s="22" t="s">
         <v>14</v>
@@ -2507,7 +2523,7 @@
         <v>45883</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J30" s="18" t="s">
         <v>17</v>
@@ -2521,16 +2537,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>14</v>
@@ -2556,16 +2572,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>14</v>
@@ -2591,16 +2607,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F33" s="22" t="s">
         <v>14</v>
@@ -2626,16 +2642,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F34" s="22" t="s">
         <v>14</v>
@@ -2661,16 +2677,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F35" s="22" t="s">
         <v>83</v>
@@ -2681,8 +2697,8 @@
       <c r="H35" s="26">
         <v>45883</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>16</v>
+      <c r="I35" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="J35" s="18" t="s">
         <v>17</v>
@@ -2696,16 +2712,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F36" s="22" t="s">
         <v>14</v>
@@ -2717,7 +2733,7 @@
         <v>45883</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J36" s="18" t="s">
         <v>17</v>
@@ -2731,16 +2747,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F37" s="22" t="s">
         <v>14</v>
@@ -2766,16 +2782,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F38" s="22" t="s">
         <v>14</v>
@@ -2787,7 +2803,7 @@
         <v>45883</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J38" s="18" t="s">
         <v>17</v>
@@ -2801,16 +2817,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F39" s="22" t="s">
         <v>14</v>
@@ -2822,7 +2838,7 @@
         <v>45883</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J39" s="18" t="s">
         <v>17</v>
@@ -2836,16 +2852,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F40" s="22" t="s">
         <v>14</v>
@@ -2871,16 +2887,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>14</v>
@@ -2944,8 +2960,8 @@
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3003,10 +3019,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>13</v>
@@ -3021,7 +3037,7 @@
         <v>45886</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>17</v>
@@ -3035,16 +3051,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>14</v>
@@ -3056,7 +3072,7 @@
         <v>45886</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>17</v>
@@ -3070,13 +3086,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>62</v>
@@ -3091,7 +3107,7 @@
         <v>45886</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>17</v>
@@ -3105,13 +3121,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>66</v>
@@ -3126,7 +3142,7 @@
         <v>45886</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>17</v>
@@ -3143,10 +3159,10 @@
         <v>67</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>70</v>
@@ -3161,7 +3177,7 @@
         <v>45886</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>17</v>
@@ -3175,16 +3191,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>14</v>
@@ -3213,7 +3229,7 @@
         <v>71</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>73</v>
@@ -3231,7 +3247,7 @@
         <v>45886</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>17</v>
@@ -3248,13 +3264,13 @@
         <v>75</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>14</v>
@@ -3280,16 +3296,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>83</v>
@@ -3300,8 +3316,8 @@
       <c r="H10" s="28">
         <v>45886</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>16</v>
+      <c r="I10" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>17</v>
@@ -3315,16 +3331,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>14</v>
@@ -3350,16 +3366,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>14</v>
@@ -3371,7 +3387,7 @@
         <v>45886</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>17</v>
@@ -3385,16 +3401,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="D13" s="34" t="s">
-        <v>190</v>
-      </c>
       <c r="E13" s="24" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>14</v>
